--- a/biology/Médecine/Kōichirō_Fujita/Kōichirō_Fujita.xlsx
+++ b/biology/Médecine/Kōichirō_Fujita/Kōichirō_Fujita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C5%8Dichir%C5%8D_Fujita</t>
+          <t>Kōichirō_Fujita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kōichirō Fujita (藤田 紘一郎, Fujita Kōichirō?), né le 6 août 1939 dans le Mandchoukouo (aujourd'hui Nord-Est de la république populaire de Chine), est un chercheur en immunité (docteur en médecine) japonais. Il est professeur honoraire à l'université de médecine et d'odontologie de Tokyo.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C5%8Dichir%C5%8D_Fujita</t>
+          <t>Kōichirō_Fujita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(ja) 寄藤文平 et 藤田 紘一郎, 『ウンココロ しあわせウンコ生活のススメ』, 東京市, 実業之日本社,‎ 2010, 212 p. (ISBN 978-4-408-55016-9)</t>
         </is>
